--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F604D8A4-C807-4B73-B686-FF374B5C1DD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE8CB00-F65D-44F8-B9FF-86F832C5FD9D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F35DDB9-AF6F-41A3-8507-2F683C6AC738}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3B2525-D6E3-4A2B-B2E4-03A814AE3114}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -4887,8 +4887,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -4906,9 +4906,6 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4954,23 +4951,6 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5119,7 +5099,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3B2525-D6E3-4A2B-B2E4-03A814AE3114}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDFBA9A5-2923-4C5E-88BB-37A8C4278E7F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -4887,8 +4887,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -4906,6 +4906,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4951,6 +4954,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5099,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDFBA9A5-2923-4C5E-88BB-37A8C4278E7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE959FB2-485D-47CA-A04C-886017C56986}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE959FB2-485D-47CA-A04C-886017C56986}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D7B20FA-FC23-4F2B-B85F-7648707BABC7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -5119,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D7B20FA-FC23-4F2B-B85F-7648707BABC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55A3A28-4F9E-4E42-80C2-E73FAE53108D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -4887,8 +4887,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -4906,9 +4906,6 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4954,23 +4951,6 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5119,7 +5099,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A55A3A28-4F9E-4E42-80C2-E73FAE53108D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDFBA9A5-2923-4C5E-88BB-37A8C4278E7F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_population_who.xlsx
+++ b/data/input/static/base_population_who.xlsx
@@ -4887,8 +4887,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="504bd14f85abc770ed43885d52246388">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="823b5556cd3b486fc41cc4ce5ea1e5e3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F87334A6AC30D4EA6021977FA7E2445" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="13eff9136b4917bb459ad9c1db870f6d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b370a6fa-a798-42e0-969d-19c284d8683f" xmlns:ns3="62ca1376-8bea-4949-825e-fec085c3924e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e7197df19c7150b1ba0c3bfe00adf4" ns2:_="" ns3:_="">
     <xsd:import namespace="b370a6fa-a798-42e0-969d-19c284d8683f"/>
     <xsd:import namespace="62ca1376-8bea-4949-825e-fec085c3924e"/>
     <xsd:element name="properties">
@@ -4906,6 +4906,9 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4951,6 +4954,23 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -5099,7 +5119,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDFBA9A5-2923-4C5E-88BB-37A8C4278E7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3D823E1-8C2E-434F-B464-7E0E495C7631}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
